--- a/story_xlsx_files/41.xlsx
+++ b/story_xlsx_files/41.xlsx
@@ -12,12 +12,225 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>storyText</t>
   </si>
   <si>
-    <t>Restaurant Meet Cute</t>
+    <t>locationEvent</t>
+  </si>
+  <si>
+    <t>socialEvent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">mes noticed Teresa immediately as she walked into the restaurant - or, more accurately as she attempted to walk into the restaurant. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">She was typing intently on her phone, and ran straight into the diner's clear glass door with an echoing thud. </t>
+  </si>
+  <si>
+    <t>Everyone waiting around the cash register turned to see if she was okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa rubbed her head, confused but unembarrassed, mostly just indignant that the door had been in her way. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">James found this quite charming and stole a couple glances of her, until she noticed and wrinkled her eyebrows at him in suspicion. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The restaurant they were in was a cabin-themed diner, with wooden booths and bar and walls covered in plaid blankets and antler decorations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The waiter saw that James and Teresa were both alone, and motioned to both of them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Right this way. You two don't mind sitting at the counter?” </t>
+  </si>
+  <si>
+    <t>They sat a seat apart from each other on the split tree trunk that served as a bench.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The waitress behind the counter gave them bright neon menus that were filled with breakfast items.</t>
+  </si>
+  <si>
+    <t>Teresa quickly glanced through it, then pulled out a book and started reading it, while James played with the salt and pepper shakers as he tried to think of an excuse to talk to Teresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He eventually turned to her, and asked, “Your forehead alright?”</t>
+  </si>
+  <si>
+    <t>She put down her book and gave him a smirk.</t>
+  </si>
+  <si>
+    <t>“Have you ever been stung by a scorpion?” she asked him, tilting her head.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“What?” </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “A scorpion.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He began to worry that maybe she had suffered a concussion in the door crash.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Uh no, why?” </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Because I have been, and since then, things like bumping into doors seem like pretty small potatoes.” </t>
+  </si>
+  <si>
+    <t>They carried on talking, and Teresa told him all about her encounter with a Deathstalker scorpion while she was studying abroad in Egypt.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">fter a few minutes, the waitress behind the counter came up to them, “Alrighty, can I take you order?” </t>
+    </r>
+  </si>
+  <si>
+    <t>She first asked Teresa who answered, “I’ll have a Western Omelette and a glass of milk.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then the waitress turned to James, “I’ll have the chocolate chip pancakes and a coffee.” </t>
+  </si>
+  <si>
+    <t>“Alrighty, comin’ right up!”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They picked up their conversation, and James ended up telling Teresa about a concert he was going to later. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>e invited her to come along, promising her that the concert would be indoors and absolutely free of venomous insects.</t>
+    </r>
+  </si>
+  <si>
+    <t>Teresa gave him her number, and they worked out that James would pick her up before the concert, and drive them there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was not what they had expected from their solitary lunch plans and were both excited, though Teresa was doing a much better job of hiding it than James. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">fter awhile,  the waitress brought out their food, and James took this opportunity to scoot closer to her on the log bench. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> She was happy to share the meal with him, despite their food tasting pretty bad. </t>
+  </si>
+  <si>
+    <t>Judging by how salty the pancakes tasted, they suspected that the chef confused the salt and sugar.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">hen the meal was over, they got up, and hugged, parting ways. </t>
+    </r>
+  </si>
+  <si>
+    <t>“I have to run, got to get to work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> See you tonight!” James said.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa smiled and walked towards the door without looking, and almost ran into the door again. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They both laughed and smiled once more goodbye. </t>
   </si>
 </sst>
 </file>
@@ -27,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -48,6 +261,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -232,7 +450,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -254,10 +472,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -266,14 +487,17 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,7 +1586,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1385,205 +1609,556 @@
       <c r="A2" t="s" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>2</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="7">
-        <v>41</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="A3" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="A4" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="A5" t="s" s="15">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" t="s" s="15">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="B15" s="12">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B16" s="12">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="B17" s="12">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B18" s="12">
+        <v>2</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" t="s" s="15">
+        <v>19</v>
+      </c>
+      <c r="B19" s="12">
+        <v>2</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="B20" s="12">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13">
+        <v>2</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="A21" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="B21" s="12">
+        <v>2</v>
+      </c>
+      <c r="C21" s="13">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="A22" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12">
+        <v>2</v>
+      </c>
+      <c r="C22" s="13">
+        <v>2</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="A23" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B23" s="12">
+        <v>3</v>
+      </c>
+      <c r="C23" s="13">
+        <v>3</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="15">
+        <v>24</v>
+      </c>
+      <c r="B24" s="12">
+        <v>3</v>
+      </c>
+      <c r="C24" s="13">
+        <v>3</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="B25" s="12">
+        <v>3</v>
+      </c>
+      <c r="C25" s="13">
+        <v>3</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="B26" s="12">
+        <v>3</v>
+      </c>
+      <c r="C26" s="13">
+        <v>3</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="B27" s="12">
+        <v>3</v>
+      </c>
+      <c r="C27" s="13">
+        <v>3</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="15">
+        <v>28</v>
+      </c>
+      <c r="B28" s="12">
+        <v>3</v>
+      </c>
+      <c r="C28" s="13">
+        <v>3</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="15">
+        <v>29</v>
+      </c>
+      <c r="B29" s="12">
+        <v>3</v>
+      </c>
+      <c r="C29" s="13">
+        <v>3</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="15">
+        <v>30</v>
+      </c>
+      <c r="B30" s="12">
+        <v>3</v>
+      </c>
+      <c r="C30" s="13">
+        <v>3</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="B31" s="12">
+        <v>4</v>
+      </c>
+      <c r="C31" s="13">
+        <v>4</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="B32" s="12">
+        <v>4</v>
+      </c>
+      <c r="C32" s="13">
+        <v>4</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="15">
+        <v>33</v>
+      </c>
+      <c r="B33" s="12">
+        <v>4</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="B34" s="12">
+        <v>4</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="B35" s="12">
+        <v>4</v>
+      </c>
+      <c r="C35" s="13">
+        <v>4</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="B36" s="12">
+        <v>4</v>
+      </c>
+      <c r="C36" s="13">
+        <v>4</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="B37" s="12">
+        <v>4</v>
+      </c>
+      <c r="C37" s="13">
+        <v>4</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="B38" s="12">
+        <v>4</v>
+      </c>
+      <c r="C38" s="13">
+        <v>4</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/story_xlsx_files/41.xlsx
+++ b/story_xlsx_files/41.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>storyText</t>
   </si>
@@ -52,25 +52,31 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">She was typing intently on her phone, and ran straight into the diner's clear glass door with an echoing thud. </t>
+    <t xml:space="preserve">She was typing intently on her phone and ran straight into the diner's clear, glass door with an echoing thud. </t>
   </si>
   <si>
     <t>Everyone waiting around the cash register turned to see if she was okay.</t>
   </si>
   <si>
-    <t xml:space="preserve">Teresa rubbed her head, confused but unembarrassed, mostly just indignant that the door had been in her way. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">James found this quite charming and stole a couple glances of her, until she noticed and wrinkled her eyebrows at him in suspicion. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The restaurant they were in was a cabin-themed diner, with wooden booths and bar and walls covered in plaid blankets and antler decorations. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The waiter saw that James and Teresa were both alone, and motioned to both of them. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Right this way. You two don't mind sitting at the counter?” </t>
+    <t>Teresa rubbed her head.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While being both confused and unembarrassed, she looked mostly indignant that the door had been in her way. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">James found this quite charming and stole a couple glances at her until she noticed and wrinkled her eyebrows at him in suspicion. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The restaurant they were in was a cabin-themed diner with wooden booths and bar, walls covered in plaid blankets, and antler decorations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The waiter saw that James and Teresa were both alone and motioned to both of them. </t>
+  </si>
+  <si>
+    <t>“Right this way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You two don't mind sitting at the counter?” </t>
   </si>
   <si>
     <t>They sat a seat apart from each other on the split tree trunk that served as a bench.</t>
@@ -79,31 +85,31 @@
     <t xml:space="preserve"> The waitress behind the counter gave them bright neon menus that were filled with breakfast items.</t>
   </si>
   <si>
-    <t>Teresa quickly glanced through it, then pulled out a book and started reading it, while James played with the salt and pepper shakers as he tried to think of an excuse to talk to Teresa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> He eventually turned to her, and asked, “Your forehead alright?”</t>
+    <t>Teresa quickly glanced through it, then pulled out a book and started reading it while James played with the salt and pepper shakers as he tried to think of an excuse to talk to Teresa.</t>
+  </si>
+  <si>
+    <t>James eventually turned to her and asked, “Your forehead alright?”</t>
   </si>
   <si>
     <t>She put down her book and gave him a smirk.</t>
   </si>
   <si>
-    <t>“Have you ever been stung by a scorpion?” she asked him, tilting her head.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“What?” </t>
+    <t>“Have you ever been stung by a scorpion?”, she asked him, tilting her head.</t>
+  </si>
+  <si>
+    <t>“What?”, he asked confusedly.</t>
   </si>
   <si>
     <t xml:space="preserve"> “A scorpion.”</t>
   </si>
   <si>
-    <t xml:space="preserve"> He began to worry that maybe she had suffered a concussion in the door crash.</t>
+    <t>James began to worry that Teresa had possibly suffered a concussion in the door crash.</t>
   </si>
   <si>
     <t xml:space="preserve">“Uh no, why?” </t>
   </si>
   <si>
-    <t xml:space="preserve"> “Because I have been, and since then, things like bumping into doors seem like pretty small potatoes.” </t>
+    <t xml:space="preserve">“Because I’ve been stung by one, and since then, things like bumping into doors seem like pretty small potatoes.” </t>
   </si>
   <si>
     <t>They carried on talking, and Teresa told him all about her encounter with a Deathstalker scorpion while she was studying abroad in Egypt.</t>
@@ -127,10 +133,13 @@
     </r>
   </si>
   <si>
-    <t>She first asked Teresa who answered, “I’ll have a Western Omelette and a glass of milk.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then the waitress turned to James, “I’ll have the chocolate chip pancakes and a coffee.” </t>
+    <t>She first looked at Teresa who answered, “I’ll have a Western Omelette and a glass of milk.”</t>
+  </si>
+  <si>
+    <t>Then the waitress turned to James.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James said, “I’ll have the chocolate chip pancakes and a coffee.” </t>
   </si>
   <si>
     <t>“Alrighty, comin’ right up!”</t>
@@ -139,14 +148,6 @@
     <t xml:space="preserve">They picked up their conversation, and James ended up telling Teresa about a concert he was going to later. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
     <r>
       <rPr>
         <sz val="16"/>
@@ -165,10 +166,10 @@
     </r>
   </si>
   <si>
-    <t>Teresa gave him her number, and they worked out that James would pick her up before the concert, and drive them there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This was not what they had expected from their solitary lunch plans and were both excited, though Teresa was doing a much better job of hiding it than James. </t>
+    <t>Teresa agreed, gave him her number, and they worked out that James would pick her up before the concert and drive them there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was not what they had expected from their solitary lunch plans and were both excited, even though Teresa was doing a much better job of hiding it than James. </t>
   </si>
   <si>
     <r>
@@ -197,10 +198,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> She was happy to share the meal with him, despite their food tasting pretty bad. </t>
-  </si>
-  <si>
-    <t>Judging by how salty the pancakes tasted, they suspected that the chef confused the salt and sugar.</t>
+    <t xml:space="preserve">Teresa was happy to share the meal with James, despite their food tasting pretty bad. </t>
+  </si>
+  <si>
+    <t>Judging by how salty the pancakes tasted, they suspected that the chef had confused the salt and sugar.</t>
   </si>
   <si>
     <r>
@@ -217,14 +218,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">hen the meal was over, they got up, and hugged, parting ways. </t>
+      <t xml:space="preserve">hen the meal was over, they got up, hugged, and parted ways. </t>
     </r>
   </si>
   <si>
-    <t>“I have to run, got to get to work.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> See you tonight!” James said.</t>
+    <t>James said,“I have to run, got to get to work.</t>
+  </si>
+  <si>
+    <t>See you tonight!”</t>
   </si>
   <si>
     <t xml:space="preserve">Teresa smiled and walked towards the door without looking, and almost ran into the door again. </t>
@@ -450,26 +451,26 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -481,9 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -493,11 +491,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1586,13 +1584,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1630,535 +1634,671 @@
       <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="A4" t="s" s="10">
         <v>4</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="15">
+      <c r="A5" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="15">
+      <c r="A6" t="s" s="13">
         <v>6</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="15">
+      <c r="A7" t="s" s="13">
         <v>7</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="13">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C9" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="15">
-        <v>9</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="B10" s="12">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="B11" s="12">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11">
         <v>2</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C12" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="B12" s="12">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11">
         <v>2</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C13" s="12">
         <v>1</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="B13" s="12">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C14" s="12">
         <v>1</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="B15" s="12">
+      <c r="C16" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="13">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="B17" s="11">
         <v>2</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B16" s="12">
+      <c r="C17" s="12">
         <v>2</v>
       </c>
-      <c r="C16" s="13">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="B18" s="11">
         <v>2</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="B17" s="12">
+      <c r="C18" s="12">
         <v>2</v>
       </c>
-      <c r="C17" s="13">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="B19" s="11">
         <v>2</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="B18" s="12">
+      <c r="C19" s="12">
         <v>2</v>
       </c>
-      <c r="C18" s="13">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="B20" s="11">
         <v>2</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="B19" s="12">
+      <c r="C20" s="12">
         <v>2</v>
       </c>
-      <c r="C19" s="13">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11">
         <v>2</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="B20" s="12">
+      <c r="C21" s="12">
         <v>2</v>
       </c>
-      <c r="C20" s="13">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="B22" s="11">
         <v>2</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="B21" s="12">
+      <c r="C22" s="12">
         <v>2</v>
       </c>
-      <c r="C21" s="13">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="B23" s="11">
         <v>2</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="B22" s="12">
+      <c r="C23" s="12">
         <v>2</v>
       </c>
-      <c r="C22" s="13">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="B24" s="11">
         <v>2</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B23" s="12">
+      <c r="C24" s="12">
+        <v>2</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="B25" s="11">
         <v>3</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C25" s="12">
         <v>3</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="15">
-        <v>24</v>
-      </c>
-      <c r="B24" s="12">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="13">
+        <v>26</v>
+      </c>
+      <c r="B26" s="11">
         <v>3</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C26" s="12">
         <v>3</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="B25" s="12">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="B27" s="11">
         <v>3</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C27" s="12">
         <v>3</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="B26" s="12">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="13">
+        <v>28</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="B29" s="11">
         <v>3</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C29" s="12">
         <v>3</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="B27" s="12">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="B30" s="11">
         <v>3</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C30" s="12">
         <v>3</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="B28" s="12">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="B31" s="11">
         <v>3</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C31" s="12">
         <v>3</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="B29" s="12">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="B32" s="11">
         <v>3</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C32" s="12">
         <v>3</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="B30" s="12">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="B33" s="11">
         <v>3</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C33" s="12">
         <v>3</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="15">
-        <v>31</v>
-      </c>
-      <c r="B31" s="12">
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="B34" s="11">
         <v>4</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C34" s="12">
         <v>4</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="B32" s="12">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="B35" s="11">
         <v>4</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C35" s="12">
         <v>4</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="B33" s="12">
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="B36" s="11">
         <v>4</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C36" s="12">
         <v>4</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="15">
-        <v>34</v>
-      </c>
-      <c r="B34" s="12">
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="13">
+        <v>37</v>
+      </c>
+      <c r="B37" s="11">
         <v>4</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C37" s="12">
         <v>4</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="B35" s="12">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="B38" s="11">
         <v>4</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C38" s="12">
         <v>4</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="15">
-        <v>36</v>
-      </c>
-      <c r="B36" s="12">
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="B39" s="11">
         <v>4</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C39" s="12">
         <v>4</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="15">
-        <v>37</v>
-      </c>
-      <c r="B37" s="12">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" t="s" s="13">
+        <v>40</v>
+      </c>
+      <c r="B40" s="11">
         <v>4</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C40" s="12">
         <v>4</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="15">
-        <v>38</v>
-      </c>
-      <c r="B38" s="12">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="B41" s="11">
         <v>4</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C41" s="12">
         <v>4</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="14"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" s="14"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" s="14"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" s="14"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" s="14"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" s="14"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="A48" s="14"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" ht="20.05" customHeight="1">
+      <c r="A49" s="14"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" ht="20.05" customHeight="1">
+      <c r="A50" s="14"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" ht="20.05" customHeight="1">
+      <c r="A51" s="14"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" ht="20.05" customHeight="1">
+      <c r="A52" s="14"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/story_xlsx_files/41.xlsx
+++ b/story_xlsx_files/41.xlsx
@@ -451,26 +451,26 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -482,6 +482,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -491,10 +494,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1590,13 +1599,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1634,671 +1637,679 @@
       <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="A4" t="s" s="11">
         <v>4</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="13">
+      <c r="A5" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="13">
+      <c r="A6" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="13">
+      <c r="A7" t="s" s="15">
         <v>7</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="13">
+      <c r="A8" t="s" s="15">
         <v>8</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>1</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="10">
+      <c r="A9" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>1</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="13">
         <v>1</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="13">
+      <c r="A10" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>1</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="13">
         <v>1</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="10">
+      <c r="A11" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="13">
         <v>1</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="10">
+      <c r="A12" t="s" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="13">
         <v>1</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="10">
+      <c r="A13" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>2</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="13">
         <v>1</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="10">
+      <c r="A14" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>2</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="13">
         <v>1</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="10">
+      <c r="A15" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="13">
         <v>1</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="10">
+      <c r="A16" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>2</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="13">
         <v>2</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="10">
+      <c r="A17" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <v>2</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="10">
+      <c r="A18" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>2</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="13">
         <v>2</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="10">
+      <c r="A19" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>2</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="13">
         <v>2</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="10">
+      <c r="A20" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>2</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="13">
+      <c r="A21" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="12">
         <v>2</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="13">
         <v>2</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="13">
+      <c r="A22" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="12">
         <v>2</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="13">
         <v>2</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="13">
+      <c r="A23" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="12">
         <v>2</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="13">
         <v>2</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="10">
+      <c r="A24" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>2</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="13">
         <v>2</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="10">
+      <c r="A25" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="12">
         <v>3</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="13">
         <v>3</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="13">
+      <c r="A26" t="s" s="15">
         <v>26</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="12">
         <v>3</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="13">
         <v>3</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="13">
+      <c r="A27" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="12">
         <v>3</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="13">
         <v>3</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="13">
+      <c r="A28" t="s" s="15">
         <v>28</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="B28" s="12">
+        <v>3</v>
+      </c>
+      <c r="C28" s="13">
+        <v>3</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="13">
+      <c r="A29" t="s" s="15">
         <v>29</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="12">
         <v>3</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="13">
         <v>3</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="13">
+      <c r="A30" t="s" s="15">
         <v>30</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="12">
         <v>3</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="13">
         <v>3</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="13">
+      <c r="A31" t="s" s="15">
         <v>31</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="12">
         <v>3</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="13">
         <v>3</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="13">
+      <c r="A32" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="12">
         <v>3</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="13">
         <v>3</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="13">
+      <c r="A33" t="s" s="15">
         <v>33</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="12">
         <v>3</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="13">
         <v>3</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="13">
+      <c r="A34" t="s" s="15">
         <v>34</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="12">
         <v>4</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="13">
         <v>4</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="13">
+      <c r="A35" t="s" s="15">
         <v>35</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="12">
         <v>4</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="13">
         <v>4</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="13">
+      <c r="A36" t="s" s="15">
         <v>36</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="12">
         <v>4</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="13">
         <v>4</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="13">
+      <c r="A37" t="s" s="15">
         <v>37</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="12">
         <v>4</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="13">
         <v>4</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="13">
+      <c r="A38" t="s" s="15">
         <v>38</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="12">
         <v>4</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="13">
         <v>4</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="13">
+      <c r="A39" t="s" s="15">
         <v>39</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="12">
         <v>4</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="13">
         <v>4</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="13">
+      <c r="A40" t="s" s="15">
         <v>40</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="12">
         <v>4</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="13">
         <v>4</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="13">
+      <c r="A41" t="s" s="15">
         <v>41</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="12">
         <v>4</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="13">
         <v>4</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="14"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="14"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="14"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="14"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="14"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="14"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="14"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="14"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="14"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/story_xlsx_files/41.xlsx
+++ b/story_xlsx_files/41.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>storyText</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>socialEvent</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <r>
@@ -451,26 +454,26 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -482,9 +485,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -494,16 +494,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1599,7 +1593,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1622,14 +1622,16 @@
       <c r="C2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" t="s" s="5">
+        <v>3</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
@@ -1637,679 +1639,681 @@
       <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="D3" s="9">
+        <v>41</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="A4" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="13">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="13">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="13">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="13">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="13">
+        <v>24</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="B25" s="11">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12">
+        <v>3</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="B26" s="11">
+        <v>3</v>
+      </c>
+      <c r="C26" s="12">
+        <v>3</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="13">
+        <v>28</v>
+      </c>
+      <c r="B27" s="11">
+        <v>3</v>
+      </c>
+      <c r="C27" s="12">
+        <v>3</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" s="12">
+        <v>3</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="B29" s="11">
+        <v>3</v>
+      </c>
+      <c r="C29" s="12">
+        <v>3</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="B30" s="11">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12">
+        <v>3</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="B31" s="11">
+        <v>3</v>
+      </c>
+      <c r="C31" s="12">
+        <v>3</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="B32" s="11">
+        <v>3</v>
+      </c>
+      <c r="C32" s="12">
+        <v>3</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="B33" s="11">
+        <v>3</v>
+      </c>
+      <c r="C33" s="12">
+        <v>3</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="B34" s="11">
         <v>4</v>
       </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="15">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="15">
-        <v>6</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="15">
-        <v>7</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="15">
-        <v>8</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="15">
-        <v>10</v>
-      </c>
-      <c r="B10" s="12">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="B11" s="12">
-        <v>2</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="B12" s="12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="B13" s="12">
-        <v>2</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="B14" s="12">
-        <v>2</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="B15" s="12">
-        <v>2</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B16" s="12">
-        <v>2</v>
-      </c>
-      <c r="C16" s="13">
-        <v>2</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="B17" s="12">
-        <v>2</v>
-      </c>
-      <c r="C17" s="13">
-        <v>2</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="B18" s="12">
-        <v>2</v>
-      </c>
-      <c r="C18" s="13">
-        <v>2</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="B19" s="12">
-        <v>2</v>
-      </c>
-      <c r="C19" s="13">
-        <v>2</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="B20" s="12">
-        <v>2</v>
-      </c>
-      <c r="C20" s="13">
-        <v>2</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="B21" s="12">
-        <v>2</v>
-      </c>
-      <c r="C21" s="13">
-        <v>2</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="B22" s="12">
-        <v>2</v>
-      </c>
-      <c r="C22" s="13">
-        <v>2</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="15">
-        <v>23</v>
-      </c>
-      <c r="B23" s="12">
-        <v>2</v>
-      </c>
-      <c r="C23" s="13">
-        <v>2</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="11">
-        <v>24</v>
-      </c>
-      <c r="B24" s="12">
-        <v>2</v>
-      </c>
-      <c r="C24" s="13">
-        <v>2</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="B25" s="12">
-        <v>3</v>
-      </c>
-      <c r="C25" s="13">
-        <v>3</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="B26" s="12">
-        <v>3</v>
-      </c>
-      <c r="C26" s="13">
-        <v>3</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="B27" s="12">
-        <v>3</v>
-      </c>
-      <c r="C27" s="13">
-        <v>3</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="B28" s="12">
-        <v>3</v>
-      </c>
-      <c r="C28" s="13">
-        <v>3</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="B29" s="12">
-        <v>3</v>
-      </c>
-      <c r="C29" s="13">
-        <v>3</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="B30" s="12">
-        <v>3</v>
-      </c>
-      <c r="C30" s="13">
-        <v>3</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="15">
-        <v>31</v>
-      </c>
-      <c r="B31" s="12">
-        <v>3</v>
-      </c>
-      <c r="C31" s="13">
-        <v>3</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="B32" s="12">
-        <v>3</v>
-      </c>
-      <c r="C32" s="13">
-        <v>3</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="B33" s="12">
-        <v>3</v>
-      </c>
-      <c r="C33" s="13">
-        <v>3</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="15">
-        <v>34</v>
-      </c>
-      <c r="B34" s="12">
+      <c r="C34" s="12">
         <v>4</v>
       </c>
-      <c r="C34" s="13">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="B35" s="11">
         <v>4</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="B35" s="12">
+      <c r="C35" s="12">
         <v>4</v>
       </c>
-      <c r="C35" s="13">
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="13">
+        <v>37</v>
+      </c>
+      <c r="B36" s="11">
         <v>4</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="15">
-        <v>36</v>
-      </c>
-      <c r="B36" s="12">
+      <c r="C36" s="12">
         <v>4</v>
       </c>
-      <c r="C36" s="13">
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="B37" s="11">
         <v>4</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="15">
-        <v>37</v>
-      </c>
-      <c r="B37" s="12">
+      <c r="C37" s="12">
         <v>4</v>
       </c>
-      <c r="C37" s="13">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="B38" s="11">
         <v>4</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="15">
-        <v>38</v>
-      </c>
-      <c r="B38" s="12">
+      <c r="C38" s="12">
         <v>4</v>
       </c>
-      <c r="C38" s="13">
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" t="s" s="13">
+        <v>40</v>
+      </c>
+      <c r="B39" s="11">
         <v>4</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="15">
-        <v>39</v>
-      </c>
-      <c r="B39" s="12">
+      <c r="C39" s="12">
         <v>4</v>
       </c>
-      <c r="C39" s="13">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="B40" s="11">
         <v>4</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="15">
-        <v>40</v>
-      </c>
-      <c r="B40" s="12">
+      <c r="C40" s="12">
         <v>4</v>
       </c>
-      <c r="C40" s="13">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="B41" s="11">
         <v>4</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="15">
-        <v>41</v>
-      </c>
-      <c r="B41" s="12">
+      <c r="C41" s="12">
         <v>4</v>
       </c>
-      <c r="C41" s="13">
-        <v>4</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/story_xlsx_files/41.xlsx
+++ b/story_xlsx_files/41.xlsx
@@ -33,25 +33,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">mes noticed Teresa immediately as she walked into the restaurant - or, more accurately as she attempted to walk into the restaurant. </t>
+      <t xml:space="preserve">James noticed Teresa immediately as she walked into the restaurant - or, more accurately as she attempted to walk into the restaurant. </t>
     </r>
   </si>
   <si>
@@ -124,31 +106,39 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>A</t>
+      <t xml:space="preserve">After a few minutes, the waitress behind the counter came up to them, “Alrighty, can I take you order?” </t>
     </r>
+  </si>
+  <si>
+    <t>She first looked at Teresa who answered, “I’ll have a Western Omelette and a glass of milk.”</t>
+  </si>
+  <si>
+    <t>Then the waitress turned to James.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James said, “I’ll have the chocolate chip pancakes and a coffee.” </t>
+  </si>
+  <si>
+    <t>“Alrighty, comin’ right up!”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They picked up their conversation, and James ended up telling Teresa about a concert he was going to later. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">fter a few minutes, the waitress behind the counter came up to them, “Alrighty, can I take you order?” </t>
+      <t>He invited her to come along, promising her that the concert would be indoors and absolutely free of venomous insects.</t>
     </r>
   </si>
   <si>
-    <t>She first looked at Teresa who answered, “I’ll have a Western Omelette and a glass of milk.”</t>
-  </si>
-  <si>
-    <t>Then the waitress turned to James.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James said, “I’ll have the chocolate chip pancakes and a coffee.” </t>
-  </si>
-  <si>
-    <t>“Alrighty, comin’ right up!”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They picked up their conversation, and James ended up telling Teresa about a concert he was going to later. </t>
+    <t>Teresa agreed, gave him her number, and they worked out that James would pick her up before the concert and drive them there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was not what they had expected from their solitary lunch plans and were both excited, even though Teresa was doing a much better job of hiding it than James. </t>
   </si>
   <si>
     <r>
@@ -157,71 +147,23 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>H</t>
+      <t xml:space="preserve"> After awhile,  the waitress brought out their food, and James took this opportunity to scoot closer to her on the log bench. </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa was happy to share the meal with James, despite their food tasting pretty bad. </t>
+  </si>
+  <si>
+    <t>Judging by how salty the pancakes tasted, they suspected that the chef had confused the salt and sugar.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>e invited her to come along, promising her that the concert would be indoors and absolutely free of venomous insects.</t>
-    </r>
-  </si>
-  <si>
-    <t>Teresa agreed, gave him her number, and they worked out that James would pick her up before the concert and drive them there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This was not what they had expected from their solitary lunch plans and were both excited, even though Teresa was doing a much better job of hiding it than James. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">fter awhile,  the waitress brought out their food, and James took this opportunity to scoot closer to her on the log bench. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Teresa was happy to share the meal with James, despite their food tasting pretty bad. </t>
-  </si>
-  <si>
-    <t>Judging by how salty the pancakes tasted, they suspected that the chef had confused the salt and sugar.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">hen the meal was over, they got up, hugged, and parted ways. </t>
+      <t xml:space="preserve">When the meal was over, they got up, hugged, and parted ways. </t>
     </r>
   </si>
   <si>
@@ -244,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -253,10 +195,15 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -461,22 +408,22 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -485,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -494,10 +441,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -571,14 +518,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -759,9 +706,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -1330,9 +1277,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -1969,7 +1916,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -1984,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -1999,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -2014,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -2029,7 +1976,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -2044,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -2104,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -2119,7 +2066,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -2134,7 +2081,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -2322,7 +2269,7 @@
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/story_xlsx_files/41.xlsx
+++ b/story_xlsx_files/41.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>storyText</t>
   </si>
@@ -37,7 +37,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">She was typing intently on her phone and ran straight into the diner's clear, glass door with an echoing thud. </t>
+    <t xml:space="preserve">She was typing intently on her phone and ran straight into the restaurant’s clear, glass door with an echoing thud. </t>
   </si>
   <si>
     <t>Everyone waiting around the cash register turned to see if she was okay.</t>
@@ -49,10 +49,16 @@
     <t xml:space="preserve">While being both confused and unembarrassed, she looked mostly indignant that the door had been in her way. </t>
   </si>
   <si>
-    <t xml:space="preserve">James found this quite charming and stole a couple glances at her until she noticed and wrinkled her eyebrows at him in suspicion. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The restaurant they were in was a cabin-themed diner with wooden booths and bar, walls covered in plaid blankets, and antler decorations. </t>
+    <t xml:space="preserve">James found this quite charming and stole a couple glances at her, peeking up from the newspaper he was holding, until she noticed and wrinkled her eyebrows at him in suspicion. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">James and Teresa had both chosen the least busy time to try out Atlanta’s newest sushi restaurant.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was notable for both the food and but also for the decor: inside it looked like a forest. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There were pine wood countertops and chairs, plants all along the sides of the walls, and branch-looking structures hanging from the ceilings. </t>
   </si>
   <si>
     <t xml:space="preserve">The waiter saw that James and Teresa were both alone and motioned to both of them. </t>
@@ -67,13 +73,13 @@
     <t>They sat a seat apart from each other on the split tree trunk that served as a bench.</t>
   </si>
   <si>
-    <t xml:space="preserve"> The waitress behind the counter gave them bright neon menus that were filled with breakfast items.</t>
+    <t xml:space="preserve">The waitress behind the counter gave them bright neon menus that were filled with entrees in Japanese with small, English translations under them. </t>
   </si>
   <si>
     <t>Teresa quickly glanced through it, then pulled out a book and started reading it while James played with the salt and pepper shakers as he tried to think of an excuse to talk to Teresa.</t>
   </si>
   <si>
-    <t>James eventually turned to her and asked, “Your forehead alright?”</t>
+    <t>James eventually turned to her and asked, “Is your forehead alright?”</t>
   </si>
   <si>
     <t>She put down her book and gave him a smirk.</t>
@@ -106,32 +112,40 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">After a few minutes, the waitress behind the counter came up to them, “Alrighty, can I take you order?” </t>
+      <t xml:space="preserve">After a few minutes, the waitress behind the counter came up to them, “Are you ready for your order?” </t>
     </r>
   </si>
   <si>
-    <t>She first looked at Teresa who answered, “I’ll have a Western Omelette and a glass of milk.”</t>
+    <t>She first looked at Teresa who answered, “Yes, I’ll have a salmon roll and a Japanese beer.”</t>
   </si>
   <si>
     <t>Then the waitress turned to James.</t>
   </si>
   <si>
-    <t xml:space="preserve">James said, “I’ll have the chocolate chip pancakes and a coffee.” </t>
-  </si>
-  <si>
-    <t>“Alrighty, comin’ right up!”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They picked up their conversation, and James ended up telling Teresa about a concert he was going to later. </t>
-  </si>
-  <si>
+    <t xml:space="preserve">James said, “I’ll have a tuna roll and a vegetable roll.” </t>
+  </si>
+  <si>
+    <t>“Alright, thank you!”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They picked up their conversation, and James ended up telling Teresa about a concert he was going to later that evening. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>After a few moments of thinking, he suddenly and nervously</t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>He invited her to come along, promising her that the concert would be indoors and absolutely free of venomous insects.</t>
+      <t xml:space="preserve"> invited her to come along, promising her that the concert would be indoors and absolutely free of venomous insects.</t>
     </r>
   </si>
   <si>
@@ -147,14 +161,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> After awhile,  the waitress brought out their food, and James took this opportunity to scoot closer to her on the log bench. </t>
+      <t xml:space="preserve">After awhile, the waitress brought out their food, and James took this opportunity to scoot closer to Teresa on the log bench. </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Teresa was happy to share the meal with James, despite their food tasting pretty bad. </t>
-  </si>
-  <si>
-    <t>Judging by how salty the pancakes tasted, they suspected that the chef had confused the salt and sugar.</t>
+    <t xml:space="preserve">Teresa was happy to share the meal with James. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They really enjoyed their rolls because the fish tasted very fresh. </t>
   </si>
   <si>
     <r>
@@ -167,13 +181,16 @@
     </r>
   </si>
   <si>
-    <t>James said,“I have to run, got to get to work.</t>
+    <t>James looked at his watch and was shocked, saying,“Can you believe it’s 3pm?!”</t>
+  </si>
+  <si>
+    <t>I have to run, got to finish some errands before the show.”</t>
   </si>
   <si>
     <t>See you tonight!”</t>
   </si>
   <si>
-    <t xml:space="preserve">Teresa smiled and walked towards the door without looking, and almost ran into the door again. </t>
+    <t xml:space="preserve">James walked out of the restaurant and looked back to see Teresa almost run into the door again. </t>
   </si>
   <si>
     <t xml:space="preserve">They both laughed and smiled once more goodbye. </t>
@@ -186,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -195,15 +212,10 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -401,29 +413,29 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -432,7 +444,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -441,10 +456,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,14 +539,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -706,10 +727,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1277,10 +1298,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1534,19 +1555,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1589,678 +1604,723 @@
       <c r="D3" s="9">
         <v>41</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="A4" t="s" s="11">
         <v>5</v>
       </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="13">
+      <c r="A5" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="13">
+      <c r="A6" t="s" s="15">
         <v>7</v>
       </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="13">
+      <c r="A7" t="s" s="15">
         <v>8</v>
       </c>
-      <c r="B7" s="11">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="13">
+      <c r="A8" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B8" s="11">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="10">
+      <c r="A9" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="13">
+      <c r="A10" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B10" s="11">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="10">
+      <c r="A11" t="s" s="11">
         <v>12</v>
       </c>
-      <c r="B11" s="11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="10">
+      <c r="A12" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="B12" s="11">
-        <v>2</v>
-      </c>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="10">
+      <c r="A13" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B13" s="11">
-        <v>2</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="10">
+      <c r="A14" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B14" s="11">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="B14" s="12">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="10">
+      <c r="A15" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="B15" s="11">
-        <v>2</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="B15" s="12">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="10">
+      <c r="A16" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="B16" s="11">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12">
-        <v>2</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="B16" s="12">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="10">
+      <c r="A17" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="B17" s="11">
-        <v>2</v>
-      </c>
-      <c r="C17" s="12">
-        <v>2</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="B17" s="12">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="10">
+      <c r="A18" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="B18" s="11">
-        <v>2</v>
-      </c>
-      <c r="C18" s="12">
-        <v>2</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="B18" s="12">
+        <v>2</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="10">
+      <c r="A19" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="B19" s="11">
-        <v>2</v>
-      </c>
-      <c r="C19" s="12">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="B19" s="12">
+        <v>2</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="10">
+      <c r="A20" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="B20" s="11">
-        <v>2</v>
-      </c>
-      <c r="C20" s="12">
-        <v>2</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="B20" s="12">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13">
+        <v>2</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="13">
+      <c r="A21" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="B21" s="11">
-        <v>2</v>
-      </c>
-      <c r="C21" s="12">
-        <v>2</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="B21" s="12">
+        <v>2</v>
+      </c>
+      <c r="C21" s="13">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="13">
+      <c r="A22" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="B22" s="11">
-        <v>2</v>
-      </c>
-      <c r="C22" s="12">
-        <v>2</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="B22" s="12">
+        <v>2</v>
+      </c>
+      <c r="C22" s="13">
+        <v>2</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="13">
+      <c r="A23" t="s" s="15">
         <v>24</v>
       </c>
-      <c r="B23" s="11">
-        <v>2</v>
-      </c>
-      <c r="C23" s="12">
-        <v>2</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="B23" s="12">
+        <v>2</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="10">
+      <c r="A24" t="s" s="15">
         <v>25</v>
       </c>
-      <c r="B24" s="11">
-        <v>2</v>
-      </c>
-      <c r="C24" s="12">
-        <v>2</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="B24" s="12">
+        <v>2</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="10">
+      <c r="A25" t="s" s="15">
         <v>26</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="12">
+        <v>2</v>
+      </c>
+      <c r="C25" s="13">
+        <v>2</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="11">
+        <v>27</v>
+      </c>
+      <c r="B26" s="12">
+        <v>2</v>
+      </c>
+      <c r="C26" s="13">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="B27" s="12">
         <v>3</v>
       </c>
-      <c r="C25" s="12">
-        <v>2</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="B26" s="11">
+      <c r="C27" s="13">
+        <v>2</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="15">
+        <v>29</v>
+      </c>
+      <c r="B28" s="12">
         <v>3</v>
       </c>
-      <c r="C26" s="12">
-        <v>2</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="13">
-        <v>28</v>
-      </c>
-      <c r="B27" s="11">
+      <c r="C28" s="13">
+        <v>2</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="15">
+        <v>30</v>
+      </c>
+      <c r="B29" s="12">
         <v>3</v>
       </c>
-      <c r="C27" s="12">
-        <v>2</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="B28" s="11">
+      <c r="C29" s="13">
+        <v>2</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="B30" s="12">
         <v>3</v>
       </c>
-      <c r="C28" s="12">
-        <v>2</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="B29" s="11">
+      <c r="C30" s="13">
+        <v>2</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="B31" s="12">
         <v>3</v>
       </c>
-      <c r="C29" s="12">
-        <v>2</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="B30" s="11">
+      <c r="C31" s="13">
+        <v>2</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="15">
+        <v>33</v>
+      </c>
+      <c r="B32" s="12">
         <v>3</v>
       </c>
-      <c r="C30" s="12">
-        <v>2</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="13">
-        <v>32</v>
-      </c>
-      <c r="B31" s="11">
+      <c r="C32" s="13">
+        <v>2</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="B33" s="12">
         <v>3</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C33" s="13">
         <v>3</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="13">
-        <v>33</v>
-      </c>
-      <c r="B32" s="11">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="B34" s="12">
         <v>3</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C34" s="13">
         <v>3</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="13">
-        <v>34</v>
-      </c>
-      <c r="B33" s="11">
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="B35" s="12">
         <v>3</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C35" s="13">
         <v>3</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="13">
-        <v>35</v>
-      </c>
-      <c r="B34" s="11">
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="B36" s="12">
         <v>4</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C36" s="13">
         <v>3</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="13">
-        <v>36</v>
-      </c>
-      <c r="B35" s="11">
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="B37" s="12">
         <v>4</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C37" s="13">
         <v>3</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="13">
-        <v>37</v>
-      </c>
-      <c r="B36" s="11">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="B38" s="12">
         <v>4</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C38" s="13">
         <v>3</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="13">
-        <v>38</v>
-      </c>
-      <c r="B37" s="11">
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" t="s" s="15">
+        <v>40</v>
+      </c>
+      <c r="B39" s="12">
         <v>4</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C39" s="13">
         <v>4</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="13">
-        <v>39</v>
-      </c>
-      <c r="B38" s="11">
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" t="s" s="15">
+        <v>41</v>
+      </c>
+      <c r="B40" s="12">
         <v>4</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C40" s="13">
         <v>4</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="13">
-        <v>40</v>
-      </c>
-      <c r="B39" s="11">
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" t="s" s="15">
+        <v>42</v>
+      </c>
+      <c r="B41" s="12">
         <v>4</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C41" s="13">
         <v>4</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B40" s="11">
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" t="s" s="15">
+        <v>43</v>
+      </c>
+      <c r="B42" s="12">
         <v>4</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C42" s="13">
         <v>4</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="13">
-        <v>42</v>
-      </c>
-      <c r="B41" s="11">
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" t="s" s="15">
+        <v>44</v>
+      </c>
+      <c r="B43" s="12">
         <v>4</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C43" s="13">
         <v>4</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="14"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="A44" t="s" s="15">
+        <v>45</v>
+      </c>
+      <c r="B44" s="12">
+        <v>4</v>
+      </c>
+      <c r="C44" s="13">
+        <v>4</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="14"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="14"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="14"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="14"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="14"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="14"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="14"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="14"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" ht="20.05" customHeight="1">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" ht="20.05" customHeight="1">
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" ht="20.05" customHeight="1">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2269,7 +2329,7 @@
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/story_xlsx_files/41.xlsx
+++ b/story_xlsx_files/41.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>storyText</t>
   </si>
@@ -37,55 +37,49 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">She was typing intently on her phone and ran straight into the restaurant’s clear, glass door with an echoing thud. </t>
-  </si>
-  <si>
-    <t>Everyone waiting around the cash register turned to see if she was okay.</t>
-  </si>
-  <si>
-    <t>Teresa rubbed her head.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While being both confused and unembarrassed, she looked mostly indignant that the door had been in her way. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">James found this quite charming and stole a couple glances at her, peeking up from the newspaper he was holding, until she noticed and wrinkled her eyebrows at him in suspicion. </t>
+    <t xml:space="preserve">She was typing intently on her phone and ran straight into the restaurant’s glass door with a painful thud. </t>
+  </si>
+  <si>
+    <t>Everyone waiting around the cash register turned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa rubbed her head, and put her phone away. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She looked somewhat confused but primarily indignant that the door had been in her way. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">James found this quite charming and stole a couple glances at her, peeking up from the newspaper he was holding, until she noticed and wrinkled her eyebrows at him. </t>
   </si>
   <si>
     <t xml:space="preserve">James and Teresa had both chosen the least busy time to try out Atlanta’s newest sushi restaurant.  </t>
   </si>
   <si>
-    <t xml:space="preserve">It was notable for both the food and but also for the decor: inside it looked like a forest. </t>
+    <t xml:space="preserve">It was notable for both the food and but also for the decor. </t>
   </si>
   <si>
     <t xml:space="preserve">There were pine wood countertops and chairs, plants all along the sides of the walls, and branch-looking structures hanging from the ceilings. </t>
   </si>
   <si>
-    <t xml:space="preserve">The waiter saw that James and Teresa were both alone and motioned to both of them. </t>
-  </si>
-  <si>
-    <t>“Right this way.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You two don't mind sitting at the counter?” </t>
-  </si>
-  <si>
-    <t>They sat a seat apart from each other on the split tree trunk that served as a bench.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The waitress behind the counter gave them bright neon menus that were filled with entrees in Japanese with small, English translations under them. </t>
-  </si>
-  <si>
-    <t>Teresa quickly glanced through it, then pulled out a book and started reading it while James played with the salt and pepper shakers as he tried to think of an excuse to talk to Teresa.</t>
-  </si>
-  <si>
-    <t>James eventually turned to her and asked, “Is your forehead alright?”</t>
-  </si>
-  <si>
-    <t>She put down her book and gave him a smirk.</t>
-  </si>
-  <si>
-    <t>“Have you ever been stung by a scorpion?”, she asked him, tilting her head.</t>
+    <t xml:space="preserve">The host sat James and Teresa who were both dining alone at the bar. </t>
+  </si>
+  <si>
+    <t>They sat a seat apart from each other on the bench.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The waitress behind the counter gave them bright neon menus that were filled with entrees in Japanese with small, English translations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">James quickly glanced through it, while Teresa took a longer time. </t>
+  </si>
+  <si>
+    <t>A few minutes passed before, James turned to Teresa and asked, “Is your forehead alright?”</t>
+  </si>
+  <si>
+    <t>She turned to him and smirked.</t>
+  </si>
+  <si>
+    <t>“Have you ever been stung by a scorpion?”, she asked him.</t>
   </si>
   <si>
     <t>“What?”, he asked confusedly.</t>
@@ -112,7 +106,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">After a few minutes, the waitress behind the counter came up to them, “Are you ready for your order?” </t>
+      <t xml:space="preserve">The waitress behind the counter came up to them and asked, “Are you ready for your order?” </t>
     </r>
   </si>
   <si>
@@ -122,13 +116,10 @@
     <t>Then the waitress turned to James.</t>
   </si>
   <si>
-    <t xml:space="preserve">James said, “I’ll have a tuna roll and a vegetable roll.” </t>
+    <t xml:space="preserve">He said, “I’ll have a tuna roll and a vegetable roll.” </t>
   </si>
   <si>
     <t>“Alright, thank you!”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They picked up their conversation, and James ended up telling Teresa about a concert he was going to later that evening. </t>
   </si>
   <si>
     <r>
@@ -137,7 +128,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>After a few moments of thinking, he suddenly and nervously</t>
+      <t>James and Teresa talked about a concert James was going to that night, and he suddenly and nervously</t>
     </r>
     <r>
       <rPr>
@@ -145,30 +136,32 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> invited her to come along, promising her that the concert would be indoors and absolutely free of venomous insects.</t>
+      <t xml:space="preserve"> invited her to come along.</t>
     </r>
   </si>
   <si>
-    <t>Teresa agreed, gave him her number, and they worked out that James would pick her up before the concert and drive them there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This was not what they had expected from their solitary lunch plans and were both excited, even though Teresa was doing a much better job of hiding it than James. </t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">He promised </t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">After awhile, the waitress brought out their food, and James took this opportunity to scoot closer to Teresa on the log bench. </t>
+      <t>her that the concert would be indoors and absolutely free of venomous insects.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Teresa was happy to share the meal with James. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They really enjoyed their rolls because the fish tasted very fresh. </t>
+    <t>Teresa agreed, gave him her number, and they worked out that James would pick her up that evening before the concert and drive them there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was not what they had expected from their solitary lunch plans and were both excited, even though Teresa was doing a much better job of hiding it than James. </t>
   </si>
   <si>
     <r>
@@ -177,23 +170,20 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">When the meal was over, they got up, hugged, and parted ways. </t>
+      <t xml:space="preserve">The waitress brought out their food, placing the plates close to each other so James had to sit closer to Teresa on the bench. </t>
     </r>
   </si>
   <si>
-    <t>James looked at his watch and was shocked, saying,“Can you believe it’s 3pm?!”</t>
-  </si>
-  <si>
-    <t>I have to run, got to finish some errands before the show.”</t>
-  </si>
-  <si>
-    <t>See you tonight!”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James walked out of the restaurant and looked back to see Teresa almost run into the door again. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They both laughed and smiled once more goodbye. </t>
+    <t xml:space="preserve">Teresa was happy to share the meal with James. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They really enjoyed their rolls because the fish tasted very fresh. </t>
+  </si>
+  <si>
+    <t>James looked at his watch and seeing that it was 3 pm said, “I have to run, got to finish some errands before the show.”</t>
+  </si>
+  <si>
+    <t>See you tonight and watch out for that door!”</t>
   </si>
 </sst>
 </file>
@@ -203,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -212,10 +202,15 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -420,22 +415,22 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -447,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -459,10 +454,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -539,14 +534,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -727,10 +722,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica"/>
-            <a:ea typeface="Helvetica"/>
-            <a:cs typeface="Helvetica"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1298,10 +1293,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica"/>
-            <a:ea typeface="Helvetica"/>
-            <a:cs typeface="Helvetica"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1555,7 +1550,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1729,11 +1724,11 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="15">
+      <c r="A12" t="s" s="11">
         <v>13</v>
       </c>
       <c r="B12" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
@@ -1796,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1811,7 +1806,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1864,7 +1859,7 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="11">
+      <c r="A21" t="s" s="15">
         <v>22</v>
       </c>
       <c r="B21" s="12">
@@ -1879,7 +1874,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="11">
+      <c r="A22" t="s" s="15">
         <v>23</v>
       </c>
       <c r="B22" s="12">
@@ -1909,7 +1904,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="15">
+      <c r="A24" t="s" s="11">
         <v>25</v>
       </c>
       <c r="B24" s="12">
@@ -1924,11 +1919,11 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="15">
+      <c r="A25" t="s" s="11">
         <v>26</v>
       </c>
       <c r="B25" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="13">
         <v>2</v>
@@ -1939,11 +1934,11 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="11">
+      <c r="A26" t="s" s="15">
         <v>27</v>
       </c>
       <c r="B26" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="13">
         <v>2</v>
@@ -1954,7 +1949,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="11">
+      <c r="A27" t="s" s="15">
         <v>28</v>
       </c>
       <c r="B27" s="12">
@@ -2006,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -2021,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -2036,7 +2031,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -2063,7 +2058,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="13">
         <v>3</v>
@@ -2078,7 +2073,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="13">
         <v>3</v>
@@ -2111,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -2126,7 +2121,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -2134,90 +2129,54 @@
       <c r="G38" s="14"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="15">
-        <v>40</v>
-      </c>
-      <c r="B39" s="12">
-        <v>4</v>
-      </c>
-      <c r="C39" s="13">
-        <v>4</v>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="15">
-        <v>41</v>
-      </c>
-      <c r="B40" s="12">
-        <v>4</v>
-      </c>
-      <c r="C40" s="13">
-        <v>4</v>
-      </c>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="15">
-        <v>42</v>
-      </c>
-      <c r="B41" s="12">
-        <v>4</v>
-      </c>
-      <c r="C41" s="13">
-        <v>4</v>
-      </c>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="15">
-        <v>43</v>
-      </c>
-      <c r="B42" s="12">
-        <v>4</v>
-      </c>
-      <c r="C42" s="13">
-        <v>4</v>
-      </c>
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="15">
-        <v>44</v>
-      </c>
-      <c r="B43" s="12">
-        <v>4</v>
-      </c>
-      <c r="C43" s="13">
-        <v>4</v>
-      </c>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="15">
-        <v>45</v>
-      </c>
-      <c r="B44" s="12">
-        <v>4</v>
-      </c>
-      <c r="C44" s="13">
-        <v>4</v>
-      </c>
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -2268,60 +2227,6 @@
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
@@ -2329,7 +2234,7 @@
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/story_xlsx_files/41.xlsx
+++ b/story_xlsx_files/41.xlsx
@@ -43,7 +43,7 @@
     <t>Everyone waiting around the cash register turned.</t>
   </si>
   <si>
-    <t xml:space="preserve">Teresa rubbed her head, and put her phone away. </t>
+    <t xml:space="preserve">Teresa rubbed her head and put her phone away. </t>
   </si>
   <si>
     <t xml:space="preserve">She looked somewhat confused but primarily indignant that the door had been in her way. </t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">It was notable for both the food and but also for the decor. </t>
   </si>
   <si>
-    <t xml:space="preserve">There were pine wood countertops and chairs, plants all along the sides of the walls, and branch-looking structures hanging from the ceilings. </t>
+    <t xml:space="preserve">There were pine wood countertops and chairs, plants all along the sides of the walls, and branch-looking structures hanging from the ceiling. </t>
   </si>
   <si>
     <t xml:space="preserve">The host sat James and Teresa who were both dining alone at the bar. </t>
@@ -180,7 +180,7 @@
     <t xml:space="preserve">They really enjoyed their rolls because the fish tasted very fresh. </t>
   </si>
   <si>
-    <t>James looked at his watch and seeing that it was 3 pm said, “I have to run, got to finish some errands before the show.”</t>
+    <t>James looked at his watch and seeing that it was 3pm said, “I have to run- got to finish some errands before the show.”</t>
   </si>
   <si>
     <t>See you tonight and watch out for that door!”</t>

--- a/story_xlsx_files/41.xlsx
+++ b/story_xlsx_files/41.xlsx
@@ -33,7 +33,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">James noticed Teresa immediately as she walked into the restaurant - or, more accurately as she attempted to walk into the restaurant. </t>
+      <t xml:space="preserve">James noticed Teresa immediately as she walked into the restaurant - or, more accurately, as she attempted to walk into the restaurant. </t>
     </r>
   </si>
   <si>
@@ -55,13 +55,13 @@
     <t xml:space="preserve">James and Teresa had both chosen the least busy time to try out Atlanta’s newest sushi restaurant.  </t>
   </si>
   <si>
-    <t xml:space="preserve">It was notable for both the food and but also for the decor. </t>
+    <t xml:space="preserve">It was notable for both the food and the decor. </t>
   </si>
   <si>
     <t xml:space="preserve">There were pine wood countertops and chairs, plants all along the sides of the walls, and branch-looking structures hanging from the ceiling. </t>
   </si>
   <si>
-    <t xml:space="preserve">The host sat James and Teresa who were both dining alone at the bar. </t>
+    <t xml:space="preserve">The host sat James and Teresa, who were both dining alone, at the bar. </t>
   </si>
   <si>
     <t>They sat a seat apart from each other on the bench.</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">The waitress behind the counter gave them bright neon menus that were filled with entrees in Japanese with small, English translations. </t>
   </si>
   <si>
-    <t xml:space="preserve">James quickly glanced through it, while Teresa took a longer time. </t>
+    <t xml:space="preserve">James quickly glanced through it while Teresa took a longer time. </t>
   </si>
   <si>
     <t>A few minutes passed before, James turned to Teresa and asked, “Is your forehead alright?”</t>
@@ -79,10 +79,10 @@
     <t>She turned to him and smirked.</t>
   </si>
   <si>
-    <t>“Have you ever been stung by a scorpion?”, she asked him.</t>
-  </si>
-  <si>
-    <t>“What?”, he asked confusedly.</t>
+    <t>“Have you ever been stung by a scorpion?” she asked him.</t>
+  </si>
+  <si>
+    <t>“What?” he responded confusedly.</t>
   </si>
   <si>
     <t xml:space="preserve"> “A scorpion.”</t>
@@ -91,7 +91,7 @@
     <t>James began to worry that Teresa had possibly suffered a concussion in the door crash.</t>
   </si>
   <si>
-    <t xml:space="preserve">“Uh no, why?” </t>
+    <t>“Uh no, why?” he asked.</t>
   </si>
   <si>
     <t xml:space="preserve">“Because I’ve been stung by one, and since then, things like bumping into doors seem like pretty small potatoes.” </t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">He said, “I’ll have a tuna roll and a vegetable roll.” </t>
   </si>
   <si>
-    <t>“Alright, thank you!”</t>
+    <t>“Alright, thank you!” the waitress said.</t>
   </si>
   <si>
     <r>

--- a/story_xlsx_files/41.xlsx
+++ b/story_xlsx_files/41.xlsx
@@ -33,7 +33,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">James noticed Teresa immediately as she walked into the restaurant - or, more accurately, as she attempted to walk into the restaurant. </t>
+      <t xml:space="preserve">James noticed Teresa immediately as she walked into the restaurant- or, more accurately, as she attempted to walk into the restaurant. </t>
     </r>
   </si>
   <si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">It was notable for both the food and the decor. </t>
   </si>
   <si>
-    <t xml:space="preserve">There were pine wood countertops and chairs, plants all along the sides of the walls, and branch-looking structures hanging from the ceiling. </t>
+    <t xml:space="preserve">There were pine wood countertops and chairs, plants all along the walls, and branch-looking structures hanging from the ceiling. </t>
   </si>
   <si>
     <t xml:space="preserve">The host sat James and Teresa, who were both dining alone, at the bar. </t>
